--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/81_Zonguldak_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/81_Zonguldak_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E70F5CFC-C1DF-43D4-9D9A-69468D0BC21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F94AA1A9-6283-43E9-94AF-274BA0037314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{E2750724-16F1-4C14-B618-EF56E4A5A191}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{EDB73A56-F4E9-48F0-AD24-BEA5B8BC4FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -1000,14 +1000,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A9447118-FC5D-4469-8434-44C63F3CDC49}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9B3D8FC2-D268-43A4-BB4B-61D5E02409A3}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{EB70F686-BE8A-46B5-ADCB-26BA83792B03}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{D55ADC7A-800D-44C1-85E7-3E867B833DE5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{B0A1C1A0-D5BA-48E1-8CD1-C738980688B2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{79D09527-5BCC-44C8-B975-27DA88F3293C}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{94BC2769-9678-4207-9B9A-5E83892631C6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{4E5DA549-A4DD-4B78-887B-CBA13731273C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{84169E77-C8A1-4FA7-9A90-2BBF3EBA3AC8}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5363592C-0D14-49E8-9CFB-E2E1FA0E7E67}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{24AE3BA9-589E-4737-A49B-1BB0653AD71A}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{5E49AC71-14F1-443D-B1A3-484B5583B722}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DB5261BE-727D-4882-859D-49ADCE060F67}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{36997DA0-A87C-4BC4-B6E0-E1F96D3C73B1}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{F9AB7043-C302-452A-8D1C-E70FEBA7FD81}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D39E17B9-CA62-442B-87DF-839FBB7257EC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1377,7 +1377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AD9B26-E0A3-4937-8686-171568F36969}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC45005-CB14-4F42-821E-A1023B6FB612}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2627,18 +2627,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{023CC69F-EEBE-4468-981F-E9192DC3CDD6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0163C523-F88C-4D68-9BE3-1A8D345864DB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E071F87D-0673-47B4-B33B-F05269AD41E3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{54D2375F-BC26-4400-B52C-1A9ECB7FFA78}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A8B6DA70-EB73-4E21-880B-3DD1BAD1F5AC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C73471F3-2A84-40AC-A50C-D1DD3C992427}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{940C7E4F-4633-4815-AAFD-47400364E3A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBD865A0-EFD7-42FB-8DD4-430BC03518AE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5BD900CA-04DE-4E0B-AE5F-9512FE21E709}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E26FAE77-A2F9-4BA9-8AC1-942DEE861C6D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FF7C9AA-23E3-44C0-83A5-483FB66044D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D21A28D4-8192-4F06-B335-0BCE26CCDAD2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7997B77C-A0C6-436F-AA04-B4CAD6EF5E65}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00786794-79A4-4A2E-A749-DAFEB93623DC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5E9E23A2-F27A-48B5-9E98-60AF82105D5A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7861F79F-7601-4319-A2C5-2E9D540DD116}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{61F2A078-0CA2-4193-ACFF-F739C5A05AF3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{822D12E9-9C48-4136-82B1-7F0FB0C2DE3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA58D877-1A73-4C94-8F6A-83082C4A3698}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AC152B4-67BD-43ED-9195-4AD37AEBBBE5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD585904-A5F0-426D-AC5B-3DD4B656C1FF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8126F8F5-563D-46E0-ACF0-FC22E2F5271E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EAC351D9-E36E-4093-B5B7-8F31DD71C27A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F64C61D5-D994-454A-83CF-F4A8CFDAA5CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2651,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6DD390-8E3E-4E8A-B1D1-EDC1F487447E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0250E4A-231C-41CC-A0A7-290BCD990B8E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3882,18 +3882,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5DAE0A7-51E4-4271-BF39-844FACA23495}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A18B4CC0-702F-421A-A75C-FEFD9FBD3D5C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{34F828EB-6BCB-485D-9D02-57C966748AB0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DF5787CA-AF5F-4303-B521-BD4553DE6815}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B553C4F6-6093-4B99-91B3-ECC3F2F78D9A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF9C31D4-BE0F-4FB3-8373-63650DFA2F8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1BF51DC-BCF8-4574-93C0-29914ABCFA21}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E428A9E6-2148-49B6-8E8B-7021426038DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{06213079-047F-4168-B620-83E6DC33536A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C538DD91-FB80-4B02-8F8E-9E9DD24CFAB0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B38706D4-A790-4440-B483-38D9AA2B21C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3B33F974-4AF8-479C-B031-41A23473E94E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F82A3AE1-7DE0-43AC-A729-74DD1756BD0F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{83153670-F8DE-4F5A-9CC7-CD6DD0948767}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{39DB8C38-7F48-43AF-BCC0-F6DFC01D95B6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8E3D16C7-1A90-419C-8127-BC050563908B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5569FC47-49C0-47EB-B13C-06FBBADC4098}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A55A0CF-1CA6-488F-983C-EC930A89E46F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0E798AA-8D0E-4B29-9F58-BDA4AB736D45}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0254C70D-537A-4625-B224-2F932FD09A9A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32F0EF8D-C879-4BF4-876C-579B4C2E047B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C160C9C-5CCC-4792-856F-727842198C7B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3769A9E9-32F8-46F5-B945-0DE19075EA9C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31E17840-E40B-4927-8267-9E3B99F99CAF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3906,7 +3906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C98ED55-6CC1-4867-9995-1D52AAEC0696}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4172CA4D-426E-41E1-969B-9A4D5FE138B8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5125,18 +5125,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BE1ECC4-B27B-4BBD-AD09-6C99DAFCD8AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59AF1C33-9B5F-4C7A-8CDB-D11DDB01EF66}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{390CF638-1BF0-4230-AE0B-CA88EE4EE7B2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{62DEFA75-9095-49AD-8649-02832EE80AD6}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{593B6ADD-A8B7-40A9-9D44-B7CC70069C29}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2D345A0-A787-4E42-B605-5BB26585D9E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{980B152A-379A-4193-8AAE-9FA028893C24}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29ECED6D-49D2-4711-8B63-A64E7557C600}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B33C828-C181-43A5-96FE-C51C1927BC62}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2BECF874-9A79-43AB-A0CC-A102384C37F6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CE43CA5-42F6-40F3-AD3A-EDC65CAFE687}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7AD3E13D-AE02-48A6-B0A3-FBE1006494C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{059094A6-7E43-41A9-A452-E3A369185C1D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E184BF4-EDE4-47D7-87A3-D8834934016F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2A77F513-7261-49F2-80A1-7F3544378E66}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE30C617-7BCF-4F84-8A76-913423B9D780}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{38F2A79D-D2E6-4F05-BECA-96309707811A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B5C7435-BEB0-42BE-9561-A00A53282DFA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E45DB2A3-0D9B-4F1B-BBA2-4C9E8640ABEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{252DB42D-9695-4EC8-8820-06A6AB486545}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{494919F5-CC23-490C-8A56-2DDFB5D3238F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B2DEE31-ACAF-4FB5-831C-06A0FE343308}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17E795A8-D401-4F34-91FA-49907908334C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E71BF2CD-A574-48D5-8B64-75B5E7B6195E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5149,7 +5149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C07AC9-52E3-418A-8079-8E0B002252A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC75EF2-6B32-4AC0-B835-585597AA6370}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6358,18 +6358,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF61CADB-6FFA-48F8-B59F-5CA1AFE0F13B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D842ECE7-17E1-4D0A-90C0-F4CB7CAF5113}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4DC978CD-8060-4AC3-A397-D7F2C2249B6F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{075E16DF-B855-4CB6-902D-36397050D17D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9223F61A-FF42-4A5B-96EB-C197D13CC5C3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC2FFCE7-8F51-45CA-A247-689CF0C2DBBD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6BAA3AB-D4B8-4351-A78F-9999784866EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9BE6B52-2A8F-4759-BE41-684024ADADAF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{94EF39CE-D0F8-4FCB-8DD1-F62D2E458E40}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2488F70E-8121-4AF6-BD6D-3901DAC90385}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4ACAE97D-1D54-49F8-8C6D-90D02652C75B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98B08CAC-0F6B-4B89-863A-E85A6216A946}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35D379D3-8F76-4B33-8EFC-6FA4C5329D44}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5FB6306D-B5A4-433E-BDFD-1AD94210D148}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{08D9AC87-4802-47F0-A1B4-970F1F3C138C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{220F5653-DB9D-4505-8A9D-F913BBB45898}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3FDA30E8-A6BB-4839-9FED-3AA04BEE5A6C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB09D559-99B1-4149-9BDE-15AC672A8FFD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A910B6F-6EA2-4C10-8EC3-F95B7341E68A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F624C0A9-4FC2-4474-9051-C359B93A323D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D008E54-BB88-4FCC-8666-FFF13C022742}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0EFAE276-F0E5-48DB-8DDB-35FF65DEB1FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E8B2594-B0A3-46CA-BAE1-83F7B2DB4D69}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86497E26-4890-487D-A8D7-8D0E50FCABFF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6382,7 +6382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAF1F19-D45D-41DB-92AA-E06D3BC6D832}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB17ECA-9F7E-4EFD-B8FD-FB28A18E90AE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7625,18 +7625,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29CDBCB4-125F-433B-8E87-38AB42AE4092}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5937320D-8719-4A91-98B7-46738F8D43A2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E78B7F4-283F-4C5B-B01C-583E8104C20C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8AE00099-C576-4540-85FC-9D9EC63A59E9}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E8AFCB2C-D74F-4F4B-AF7A-342FD643AF66}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{942579E7-35F1-48D1-98C5-1680634CD5D9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9250A362-D008-41F3-8D08-DFE36B0EA4F7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DFB4E35C-D091-4A2E-A845-8D937B959A59}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{40BA072A-FF6D-438C-BA9D-D33260B9505A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4509E0BB-6774-4B82-A35B-BB52D2F99899}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7778616D-3C9D-40F6-A45E-3942381369AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{998F7E38-26EA-4131-8B86-28B6871B45D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B731B8F-87AD-4376-83B2-4719A32AE577}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E4ABE64-CFFA-4595-9E57-F54B9D3CE9A3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6820FEBC-9EEC-48B0-8FB3-BDADD5BBEAFF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0DF76483-2AE9-43E3-B4EE-E351C25E39DF}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0ED9C799-6041-4AC5-BDA4-0264BAFDA0E8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{72BB33F4-AFAF-418A-BB6D-1F676784C8C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAE46C00-0616-48BA-BE44-28B4775CE276}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{61B9306C-9E07-4873-A98E-B4DF6AC9ABA3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BEB84A40-D191-4DAB-82C1-3497A89F29FD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DBEE7261-D6C3-4EE4-8345-517E12C9A6AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA821509-282B-491C-B8E4-FA2AD7BBCE58}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{538B9088-0B92-4675-BE44-E43B219B9676}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7649,7 +7649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B645588-0BF4-43F7-9AEC-F6D136716D01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259F7182-C45C-4E90-A91D-95B5E098E628}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8892,18 +8892,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C15AFD1E-9921-44D5-8CE7-4BEFE9E65D7C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5184018D-B1A0-40A2-AB08-63EB55F9EB20}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D1922375-BEE8-4B55-B8B5-E30F30D5800A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0F29087B-3458-403F-8716-DB8B88416275}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DB8F6757-DB35-4D66-956E-4559CC203B4E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{415683C3-1173-4BEB-ACA4-7F05F1E29B3F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67CDBE97-43F6-4EF4-9213-11050EA5ECDB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60A23460-2927-443C-8648-179BC3CD38B7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B76F36C9-6ED6-4817-94D5-F2B052825B7B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31A044DE-271A-48E3-9993-BCB8436614AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{318F40BF-A5E3-4C4E-86D7-5A1D71ECFD1F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6D24440-01F7-4EAD-B187-E7AD475BF68A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B45D3056-42E0-43E4-ACE8-9F7BCEB90910}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91D38E13-0F93-4811-BDC9-FA45D05FD72D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1C88CF00-8AA1-4DF7-B092-DF43A88E49B0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{341831B9-C754-4AEA-9D97-ACEAC1BF1E57}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A43B25C6-ACF1-4B8E-B7BF-F51E29D6B49A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D27EB46-4989-45C9-815A-746E1874EBF0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5682158A-D4E6-4FA9-987B-637F68ED9007}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8984EDDE-BB52-45B9-BA0F-7F5361B83138}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60C3DF9F-5025-4F84-B4B7-97BD2A26C0DA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E2857F2F-7B0B-4391-8C83-8C636EB0E368}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30136D73-F932-45B1-81D3-BD152FD8BC4D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE74ABB8-D879-42B4-8FAE-65B41BD24ACB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8916,7 +8916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0AE783-0BB2-4615-991B-1AE9CA2EC653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5E482-EE0D-4B2A-9832-4663A1E528D1}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10159,18 +10159,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F076E7B-D88D-4502-90BE-A6880D7364FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F2CF051-80FF-40E6-A4C6-E3362C882827}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F43F22FF-0A37-4BA7-ABCC-3C7C808D64D7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91A9879E-A587-4A1C-ABB9-0069B238059C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8DC2C4B4-510E-448F-A156-FC8DCBF3C78C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{683E694F-828D-41A0-9476-DDA3D603C1C2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D539E65-EF26-4E6D-80CD-D75DF5FE3CC7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F8F857E1-A5E3-404B-9D63-27363EBD6721}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AE2CA0F6-01F2-43A5-917A-B3BE8F830F68}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3093150B-A112-46CB-8C5D-D9F63F9C4171}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09088A20-F8DE-4BA8-B3EF-589F11CE9AF2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09673F38-C43B-49C4-85BB-2B9729119ADC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65527394-6671-40FA-8959-90718FE63B10}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCB5E8A4-FF79-446B-89C5-47B76370CFB8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1438A501-B004-4C44-AD52-D795B24ABD35}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1B7578A8-56BF-4256-8898-8549EE467607}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9554BC24-087E-4C1C-92B0-08386D780C65}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6AF4C66F-F065-4A17-B383-89DF2D76C55C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B92A7F7A-9BD5-4994-8BF2-B72FF11FF8F6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB27D3D9-79ED-4F6C-A843-90C6E2540F1A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6467C3BA-49EB-4B1B-9FF9-43D91A335102}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2FAC382-7DAA-4EB2-940B-578F37AF72CF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6443B54C-2197-436D-9EA6-1E3988B2ED53}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2C1EBF3-9D52-45B1-9AE3-918476632D66}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10183,7 +10183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020CBA22-95CB-45E5-97B1-ACC58E5E0214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E5002B-05DD-42C4-B83B-E3F246838291}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11426,18 +11426,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C622828-A5C6-42D5-9409-5B39161B1468}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC3F1175-474B-45B6-9F7E-283EA28E82E4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{44CE2C87-97D1-4F64-829A-2AC6DBEB9834}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A6BE8930-146B-4402-AB77-535798420E5C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FB7AE470-5C8D-44D6-ADC0-4CC276A96F56}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{755F4659-6D97-484E-9FDE-000FA6B701A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9C40456-F0F4-4F8F-9BAB-52069ED4A472}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FBD0FC2-7B31-4D75-BE3A-57D03AB2873F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5CCD0E22-49B0-431A-8385-DB109BA35DA4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B63BBFD9-4677-456F-9C8F-06B69486958D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{254E2629-2F92-4F6B-999D-CDCF8AFDA363}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4EEEC35D-BF2F-481B-9F01-912887C72780}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{133679A1-030C-4645-AF84-79FFA415376D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59294661-E217-4E2B-8923-171732EBECB8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E45BC3EF-884E-4C79-93FD-7C03EECEF0A1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7BEA5AB8-4202-417C-9E93-5B78A93D0721}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F47A64EA-D97D-401A-AA28-21B9E293645C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83746E24-C2D3-4E9C-8C44-C1017CEF4C70}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F369F6E-E1A0-4556-B118-A9D4A4E6C2F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC5DF61B-58A5-4BCB-8F51-D85A971CF462}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C2186BB-65C6-42E9-84B6-202160EE0F1B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB671FED-6578-4FCA-8379-88480D12DBE3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CA8D030-7995-450E-AA75-74D11EEA0C21}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F7C7B1D-426A-4AB1-A624-BC626A14A558}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11450,7 +11450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9B67C-492D-4437-8DF8-9795E2500B09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD12D63-4797-4885-B098-BD695987AD0A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12689,18 +12689,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27E9EC8F-2D35-4AB6-9E06-643045300B7A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5BD8DC5-0496-4001-A4C7-87FA3065AC16}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B8018442-C04A-4DBB-80CA-80C8AE642DD7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C07B8F66-8528-4269-9C9E-FF01174C46EF}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{84F6107C-D63E-4357-9AE9-2D78173D35B0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1C401BB-04E4-47A5-8B39-60FBC6F3B277}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8141AD1B-E81B-4EFD-ADF0-01E7D7B7FD87}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA4448F4-FE9B-428A-9DBD-738815137979}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F050020F-9CD1-45EB-B23C-E053F777E47F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{15FDFFBD-DBC4-4A0F-9DA3-043860BEA4CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEE22DA8-AFA9-4F7A-99BB-59F065BCE0C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D13ADC5C-4D90-4C2A-B34B-82779D32386F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F530A630-41B5-444A-A0E4-61BE4EB9D216}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FED9D457-2C1D-47CB-8864-BE692FD66AD1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B6D18421-90B8-4831-B8A1-591B67D5BA6F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{89DB1314-ABEF-48AA-8DD0-6ECBF90F22E7}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8A163C31-672D-445E-B2F6-C358F8923010}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{84324D4E-342A-4BF6-B0F6-B01E4F92C732}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C0897A4-9EA5-4489-BA44-926A6A10AEB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{593F6696-478C-4EB7-84FA-8E0559E8D87D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52681D10-901C-40C9-9322-2054C28FD61B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E3F602A-A439-424C-BFAD-38FFCE8701F3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B47E32CB-ED6E-437A-8436-F4B1E66D1E7E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{674B36D4-DF9E-43B3-BCD0-BF3696EA1C2D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12713,7 +12713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4B0AD3-C812-4642-BEF6-9B0354413883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7DBEFE-6A9E-4B67-9189-17C8563FCAF8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13952,18 +13952,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06AFFB70-A606-4F56-82E9-3F46B5CE0B61}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EEAC5343-2718-4AD7-93B7-160F071A636D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D26664E5-F2D8-4418-B695-FFA92974E4EC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C96AFF6F-0014-43FE-8691-4B4E34E9DC2D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{92A137B6-F376-48E9-B12E-FD53470D73EE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15E0DC73-46B5-4D95-8344-B2F96B30A116}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{332AC9CA-5D47-43B1-AE9C-D516B9B19E8F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37E23BC4-C7F0-40B1-8DBA-FF3F6B9C8D56}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA54B1C1-73D8-45D5-A69B-F178394DCB48}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DB88D82B-8884-4DFC-8848-1756337FC935}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{37F26F8E-E235-4141-BFB1-B463DD8305FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D1D38AF-8EDF-4C94-848C-D1B2E83FD7CB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD6DD770-AC42-41BB-BEC6-483F6818A5AC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C93F15D-4CF1-45B2-ADDD-1B7684BAA395}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BADBF7D9-7D0F-462D-9FDD-9474E7E9F260}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{631229A6-3936-46CA-8B9F-9F9020496B99}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{26B42C1E-9B21-4B96-92E2-F9328EFF0C86}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2A6ED5E-6263-458E-A968-DBE6D166AA68}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1FA7985-1F6D-4ED2-A50B-516D0931B988}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{209964AB-C06E-4E22-A296-F224199BEC4C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B5C1975C-687F-4458-B0F2-7F6014A06762}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DC4ED6AD-718B-4F2E-ABD7-B9B240CC5490}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E55B016D-17AA-4355-BB99-F5AC98953BD8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31538DFA-0A72-4E80-8197-D41134331A44}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13976,7 +13976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1C4A99-4D34-4AA6-AAE9-189488EBEAFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB966997-95C3-4124-9D2C-C67C86DC1616}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15215,18 +15215,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81DDAE09-2D2B-49F2-9FA7-ED6D1988A233}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF1DE6B3-63DD-48E1-A4BF-3F7D18907BEC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9A10A0F2-FD6C-420D-B182-E033EA08A05C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{23C8D152-B945-4F57-B5DF-31CD3EFB7A8F}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BFE5C95D-6BE5-407D-8150-E58610F028E0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{44CA19C7-FD0E-4234-8B8D-28C9E78C6A6E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32B86702-EFA6-43EB-B064-B9F69EFA876A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B06DF0F8-C6B7-474F-BC1F-B447B1ADC271}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0129E65C-9C85-4155-A202-E30330470BC3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C1626AD-7540-46FB-8C6A-072FB1BF9467}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE513F09-6590-4FA5-98CA-263C254CA3CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0EBDC482-0CE8-4578-A0DB-82521A4BDAC1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{471A2066-3B3B-4C52-B34F-FB9C7BC5D9B5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D8B67A3-AED0-4156-A272-FE97BE867264}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9F2CDE98-EF7C-4BBA-A934-18122AFFD8AB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A7553F3-B343-405E-84B6-258858700B8F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{99788856-CC8D-4EAB-858F-189247B4ADC8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A4F0AFF0-070F-4DA4-9122-E35A431F55AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48ACA799-5BC7-48D8-A53A-580B32A447F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A17FB3D-B8D4-4DEE-8CA5-E9DFA4E791C7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{49CCCB95-7DE6-44AB-A792-537BD5FC64D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{22F15C41-4D37-47A1-BFD3-70FA52986BA5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB548782-8E26-43DA-9EED-FA256C2AEA90}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7EB0027C-1C5E-4950-9AD2-B92C304B1E94}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15239,7 +15239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853E1DA9-631C-412C-9C8B-E7E4BC72D1E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C197606-96CF-4CBE-AF34-CD161A559135}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16478,18 +16478,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B29B3728-C6C5-4615-8F17-800A501BEA5A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4F3AB6E-EF51-4038-94C2-AE07BB6F51AA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{169BB264-2DFA-468D-93F8-322D154859A8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D2A88E76-A751-479F-AD37-F56D7EA8211C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FA50A4B2-9B39-434C-A20D-CBDB0013EB0B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{503D0F98-FCC7-4089-9F1B-A7BED9986E29}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA73A3CD-EC59-4978-96EE-D1D07BE2B1C3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6C32C5D-708D-45FB-A30C-90B6556701B6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E209FC0-B395-44F9-B70A-986FEC8D33A7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67FAA6AD-386B-4EC3-9D75-4F359F4D2B30}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9853BD91-F33E-4452-ADFD-22E5B1C0E56A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BEE3410C-7F51-4B43-AFD3-5F870434C0B1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{57EA0F9C-B229-465E-B4CF-8270CCE8B0FD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BA460F1-BC83-4550-9719-3292B909410B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{631E6D7A-4AD6-4CB1-BC09-ABA570DABCEE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B3425542-869D-4A03-BF59-F53B29483D45}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{66AE4552-A04D-4249-A8B4-4621A7238F0E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75E062F2-5532-4DBE-A480-492463C687B7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10E964A0-0D1C-41ED-A688-CC16357E4697}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62BF6D86-FA10-43F0-9A96-E753C387757E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8F5FB804-D327-4FF3-822E-08A0067533A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F48B531E-8C8E-49DA-BBB1-6E72DD64A969}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A911C3D0-0306-48FC-88F9-939CF4BD1631}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F04DDF9-A683-48C7-B5CE-9D038F678699}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
